--- a/excelData/cementFactory.xlsx
+++ b/excelData/cementFactory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/excelData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D8011B-2686-A94B-9823-22541A1FCB99}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD1D4D4-1B2F-434D-993C-210AD39AEF2B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="460" windowWidth="27640" windowHeight="16540" xr2:uid="{EAC7D76D-1E0E-F74E-87ED-1328504900CF}"/>
+    <workbookView xWindow="1160" yWindow="460" windowWidth="27640" windowHeight="16540" xr2:uid="{EAC7D76D-1E0E-F74E-87ED-1328504900CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Chain List" sheetId="1" r:id="rId1"/>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="40">
   <si>
     <t>ChainName</t>
   </si>
@@ -203,7 +203,13 @@
     <t>CO2 Capture</t>
   </si>
   <si>
-    <t>excelData/cementFactory.xlsx</t>
+    <t>here</t>
+  </si>
+  <si>
+    <t>thisfile</t>
+  </si>
+  <si>
+    <t>same</t>
   </si>
 </sst>
 </file>
@@ -578,7 +584,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -586,7 +592,7 @@
     <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.83203125" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" customWidth="1"/>
     <col min="5" max="5" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -635,7 +641,7 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E3" t="s">
         <v>36</v>
@@ -652,7 +658,7 @@
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E4" t="s">
         <v>35</v>

--- a/excelData/cementFactory.xlsx
+++ b/excelData/cementFactory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/excelData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD1D4D4-1B2F-434D-993C-210AD39AEF2B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB701A61-3E95-9A4A-B400-BDFD9972F8C7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="460" windowWidth="27640" windowHeight="16540" xr2:uid="{EAC7D76D-1E0E-F74E-87ED-1328504900CF}"/>
+    <workbookView xWindow="620" yWindow="460" windowWidth="27640" windowHeight="16540" activeTab="1" xr2:uid="{EAC7D76D-1E0E-F74E-87ED-1328504900CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Chain List" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
   </sheets>
   <definedNames>
     <definedName name="cementFactoryChains" localSheetId="0">'Chain List'!$A$1:$D$4</definedName>
-    <definedName name="cementFactoryConnections" localSheetId="1">Connections!$A$1:$F$4</definedName>
+    <definedName name="cementFactoryConnections" localSheetId="1">Connections!$B$1:$F$4</definedName>
     <definedName name="cementFlow" localSheetId="2">'Cement Chain'!$A$1:$C$4</definedName>
     <definedName name="CO2CapFlow" localSheetId="4">'CO2 Capture'!$A$1:$C$3</definedName>
     <definedName name="powerFlow" localSheetId="3">'Power Chain'!$A$1:$C$2</definedName>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="46">
   <si>
     <t>ChainName</t>
   </si>
@@ -128,12 +128,6 @@
     <t>ChainSheet</t>
   </si>
   <si>
-    <t>OriginChain</t>
-  </si>
-  <si>
-    <t>OriginProcess</t>
-  </si>
-  <si>
     <t>Product</t>
   </si>
   <si>
@@ -143,9 +137,6 @@
     <t>Product_IO_of_Destination</t>
   </si>
   <si>
-    <t>DestinationChain</t>
-  </si>
-  <si>
     <t>kiln</t>
   </si>
   <si>
@@ -210,6 +201,33 @@
   </si>
   <si>
     <t>same</t>
+  </si>
+  <si>
+    <t>Recycle_Replacing</t>
+  </si>
+  <si>
+    <t>Purge_Fraction</t>
+  </si>
+  <si>
+    <t>Origin_Unit</t>
+  </si>
+  <si>
+    <t>Destination_Unit</t>
+  </si>
+  <si>
+    <t>Origin_Chain</t>
+  </si>
+  <si>
+    <t>Destination_Chain</t>
+  </si>
+  <si>
+    <t>Max_Replace_Fraction</t>
+  </si>
+  <si>
+    <t>gypsum</t>
+  </si>
+  <si>
+    <t>waste heat</t>
   </si>
 </sst>
 </file>
@@ -583,7 +601,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFE9E7BF-3E02-094F-9C49-4330CA199B98}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -624,10 +642,10 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -641,10 +659,10 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -658,10 +676,10 @@
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -671,98 +689,173 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52AFC89D-04CC-084A-B745-788782739698}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5" customWidth="1"/>
+    <col min="9" max="9" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>12</v>
       </c>
       <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
         <v>15</v>
-      </c>
-      <c r="E1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
       <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
       </c>
       <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
         <v>5</v>
       </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
       </c>
       <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
         <v>5</v>
       </c>
-      <c r="F4" t="s">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
         <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6">
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
@@ -787,43 +880,43 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -839,7 +932,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -851,21 +944,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -880,7 +973,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A504ED3-B4B0-9E44-A0DD-1742FF55E35D}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -891,13 +986,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -905,21 +1000,21 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/excelData/cementFactory.xlsx
+++ b/excelData/cementFactory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/excelData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB701A61-3E95-9A4A-B400-BDFD9972F8C7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B706D3A9-3100-3C4B-BE8F-3986D89F52D2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="620" yWindow="460" windowWidth="27640" windowHeight="16540" activeTab="1" xr2:uid="{EAC7D76D-1E0E-F74E-87ED-1328504900CF}"/>
   </bookViews>
@@ -692,7 +692,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
